--- a/spliced/walkingToRunning/2023-03-26_17-13-09/data_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-26_17-13-09/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6.554832068596112</v>
+        <v>6.48236270504103</v>
       </c>
       <c r="D2" t="n">
-        <v>-9.960963349315996</v>
+        <v>-11.76500675559703</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3889824244198911</v>
+        <v>1.762938408561835</v>
       </c>
       <c r="F2" t="n">
-        <v>2.709100723266602</v>
+        <v>1.779657483100891</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.743788242340088</v>
+        <v>1.38677453994751</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.468018054962158</v>
+        <v>-1.217397570610046</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.270810820121127</v>
+        <v>6.554832068596112</v>
       </c>
       <c r="D3" t="n">
-        <v>-15.11809787434101</v>
+        <v>-9.960963349315996</v>
       </c>
       <c r="E3" t="n">
-        <v>-3.21822886638214</v>
+        <v>0.3889824244198911</v>
       </c>
       <c r="F3" t="n">
-        <v>-5.7203369140625</v>
+        <v>2.709100723266602</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3437475264072418</v>
+        <v>-2.743788242340088</v>
       </c>
       <c r="H3" t="n">
-        <v>3.810650587081909</v>
+        <v>-2.468018054962158</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4.161586901100894</v>
+        <v>1.270810820121127</v>
       </c>
       <c r="D4" t="n">
-        <v>-34.17206232060385</v>
+        <v>-15.11809787434101</v>
       </c>
       <c r="E4" t="n">
-        <v>-13.43424063624617</v>
+        <v>-3.21822886638214</v>
       </c>
       <c r="F4" t="n">
-        <v>-8.956077575683594</v>
+        <v>-5.7203369140625</v>
       </c>
       <c r="G4" t="n">
-        <v>1.97852897644043</v>
+        <v>-0.3437475264072418</v>
       </c>
       <c r="H4" t="n">
-        <v>4.961136341094971</v>
+        <v>3.810650587081909</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16.23866346791305</v>
+        <v>4.161586901100894</v>
       </c>
       <c r="D5" t="n">
-        <v>-32.43619377178391</v>
+        <v>-34.17206232060385</v>
       </c>
       <c r="E5" t="n">
-        <v>20.3123472224284</v>
+        <v>-13.43424063624617</v>
       </c>
       <c r="F5" t="n">
-        <v>2.207361221313477</v>
+        <v>-8.956077575683594</v>
       </c>
       <c r="G5" t="n">
-        <v>-4.980310916900635</v>
+        <v>1.97852897644043</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.333511352539062</v>
+        <v>4.961136341094971</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14.53786420558697</v>
+        <v>16.23866346791305</v>
       </c>
       <c r="D6" t="n">
-        <v>-19.52934185049154</v>
+        <v>-32.43619377178391</v>
       </c>
       <c r="E6" t="n">
-        <v>3.874976218734639</v>
+        <v>20.3123472224284</v>
       </c>
       <c r="F6" t="n">
-        <v>4.59355354309082</v>
+        <v>2.207361221313477</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.431167125701904</v>
+        <v>-4.980310916900635</v>
       </c>
       <c r="H6" t="n">
-        <v>-5.101884365081787</v>
+        <v>-1.333511352539062</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10.94828109846589</v>
+        <v>14.53786420558697</v>
       </c>
       <c r="D7" t="n">
-        <v>-29.50764421073114</v>
+        <v>-19.52934185049154</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.392052579321263</v>
+        <v>3.874976218734639</v>
       </c>
       <c r="F7" t="n">
-        <v>7.505454063415527</v>
+        <v>4.59355354309082</v>
       </c>
       <c r="G7" t="n">
-        <v>11.77097225189209</v>
+        <v>-4.431167125701904</v>
       </c>
       <c r="H7" t="n">
-        <v>2.841259956359864</v>
+        <v>-5.101884365081787</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.2613377070558691</v>
+        <v>10.94828109846589</v>
       </c>
       <c r="D8" t="n">
-        <v>-5.766235414789534</v>
+        <v>-29.50764421073114</v>
       </c>
       <c r="E8" t="n">
-        <v>-11.53004543820797</v>
+        <v>-3.392052579321263</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.006541728973389</v>
+        <v>7.505454063415527</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.7645269632339478</v>
+        <v>11.77097225189209</v>
       </c>
       <c r="H8" t="n">
-        <v>4.242082595825195</v>
+        <v>2.841259956359864</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-8.008382849930468</v>
+        <v>0.2613377070558691</v>
       </c>
       <c r="D9" t="n">
-        <v>-17.18495537562934</v>
+        <v>-5.766235414789534</v>
       </c>
       <c r="E9" t="n">
-        <v>-4.449882018631926</v>
+        <v>-11.53004543820797</v>
       </c>
       <c r="F9" t="n">
-        <v>-6.868691921234131</v>
+        <v>-1.006541728973389</v>
       </c>
       <c r="G9" t="n">
-        <v>1.358012437820435</v>
+        <v>-0.7645269632339478</v>
       </c>
       <c r="H9" t="n">
-        <v>8.201138496398926</v>
+        <v>4.242082595825195</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.89743446118263</v>
+        <v>-8.008382849930468</v>
       </c>
       <c r="D10" t="n">
-        <v>-51.36141292298031</v>
+        <v>-17.18495537562934</v>
       </c>
       <c r="E10" t="n">
-        <v>19.67166264281084</v>
+        <v>-4.449882018631926</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.022271394729614</v>
+        <v>-6.868691921234131</v>
       </c>
       <c r="G10" t="n">
-        <v>7.68461799621582</v>
+        <v>1.358012437820435</v>
       </c>
       <c r="H10" t="n">
-        <v>5.039966106414795</v>
+        <v>8.201138496398926</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3.437626498838821</v>
+        <v>2.89743446118263</v>
       </c>
       <c r="D11" t="n">
-        <v>-26.48974986629606</v>
+        <v>-51.36141292298031</v>
       </c>
       <c r="E11" t="n">
-        <v>10.59604146335671</v>
+        <v>19.67166264281084</v>
       </c>
       <c r="F11" t="n">
-        <v>3.139467477798462</v>
+        <v>-2.022271394729614</v>
       </c>
       <c r="G11" t="n">
-        <v>5.108808517456055</v>
+        <v>7.68461799621582</v>
       </c>
       <c r="H11" t="n">
-        <v>-2.244845151901245</v>
+        <v>5.039966106414795</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7.019109212232532</v>
+        <v>3.437626498838821</v>
       </c>
       <c r="D12" t="n">
-        <v>-60.06252640782114</v>
+        <v>-26.48974986629606</v>
       </c>
       <c r="E12" t="n">
-        <v>22.39667311821185</v>
+        <v>10.59604146335671</v>
       </c>
       <c r="F12" t="n">
-        <v>6.52274751663208</v>
+        <v>3.139467477798462</v>
       </c>
       <c r="G12" t="n">
-        <v>3.029944896697998</v>
+        <v>5.108808517456055</v>
       </c>
       <c r="H12" t="n">
-        <v>-2.659233093261719</v>
+        <v>-2.244845151901245</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-50.40519938811362</v>
+        <v>7.019109212232532</v>
       </c>
       <c r="D13" t="n">
-        <v>25.55000802561638</v>
+        <v>-60.06252640782114</v>
       </c>
       <c r="E13" t="n">
-        <v>-26.14382194814056</v>
+        <v>22.39667311821185</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0374174155294895</v>
+        <v>6.52274751663208</v>
       </c>
       <c r="G13" t="n">
-        <v>1.209408044815064</v>
+        <v>3.029944896697998</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.9377655982971193</v>
+        <v>-2.659233093261719</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-23.51139167132288</v>
+        <v>-50.40519938811362</v>
       </c>
       <c r="D14" t="n">
-        <v>8.301538435793596</v>
+        <v>25.55000802561638</v>
       </c>
       <c r="E14" t="n">
-        <v>-5.364260246740429</v>
+        <v>-26.14382194814056</v>
       </c>
       <c r="F14" t="n">
-        <v>-5.538176536560059</v>
+        <v>0.0374174155294895</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.508614182472229</v>
+        <v>1.209408044815064</v>
       </c>
       <c r="H14" t="n">
-        <v>4.209059715270996</v>
+        <v>-0.9377655982971193</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19.2137557762104</v>
+        <v>-23.51139167132288</v>
       </c>
       <c r="D15" t="n">
-        <v>-15.87342219062932</v>
+        <v>8.301538435793596</v>
       </c>
       <c r="E15" t="n">
-        <v>9.123838287690727</v>
+        <v>-5.364260246740429</v>
       </c>
       <c r="F15" t="n">
-        <v>-6.125669956207275</v>
+        <v>-5.538176536560059</v>
       </c>
       <c r="G15" t="n">
-        <v>6.274208068847656</v>
+        <v>-1.508614182472229</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.1872868090867996</v>
+        <v>4.209059715270996</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>22.99379491015694</v>
+        <v>19.2137557762104</v>
       </c>
       <c r="D16" t="n">
-        <v>-14.08175292462935</v>
+        <v>-15.87342219062932</v>
       </c>
       <c r="E16" t="n">
-        <v>15.77189321149119</v>
+        <v>9.123838287690727</v>
       </c>
       <c r="F16" t="n">
-        <v>-3.635614395141602</v>
+        <v>-6.125669956207275</v>
       </c>
       <c r="G16" t="n">
-        <v>9.974936485290527</v>
+        <v>6.274208068847656</v>
       </c>
       <c r="H16" t="n">
-        <v>-6.00576114654541</v>
+        <v>-0.1872868090867996</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>11.55451533280682</v>
+        <v>22.99379491015694</v>
       </c>
       <c r="D17" t="n">
-        <v>-3.884813089397051</v>
+        <v>-14.08175292462935</v>
       </c>
       <c r="E17" t="n">
-        <v>16.82804655633578</v>
+        <v>15.77189321149119</v>
       </c>
       <c r="F17" t="n">
-        <v>10.5515775680542</v>
+        <v>-3.635614395141602</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.389905452728272</v>
+        <v>9.974936485290527</v>
       </c>
       <c r="H17" t="n">
-        <v>-2.446180105209351</v>
+        <v>-6.00576114654541</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-15.45424350717436</v>
+        <v>11.55451533280682</v>
       </c>
       <c r="D18" t="n">
-        <v>-10.65710430316497</v>
+        <v>-3.884813089397051</v>
       </c>
       <c r="E18" t="n">
-        <v>-10.47200286190797</v>
+        <v>16.82804655633578</v>
       </c>
       <c r="F18" t="n">
-        <v>2.352769613265991</v>
+        <v>10.5515775680542</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9100687503814696</v>
+        <v>-5.389905452728272</v>
       </c>
       <c r="H18" t="n">
-        <v>-1.187037467956543</v>
+        <v>-2.446180105209351</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.6317766937758691</v>
+        <v>-15.45424350717436</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.197802544957472</v>
+        <v>-10.65710430316497</v>
       </c>
       <c r="E19" t="n">
-        <v>-19.11218975130376</v>
+        <v>-10.47200286190797</v>
       </c>
       <c r="F19" t="n">
-        <v>0.499742180109024</v>
+        <v>2.352769613265991</v>
       </c>
       <c r="G19" t="n">
-        <v>2.3364577293396</v>
+        <v>0.9100687503814696</v>
       </c>
       <c r="H19" t="n">
-        <v>0.303800106048584</v>
+        <v>-1.187037467956543</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>17.57564231703969</v>
+        <v>0.6317766937758691</v>
       </c>
       <c r="D20" t="n">
-        <v>-9.190923457646097</v>
+        <v>-8.197802544957472</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.481564210923441</v>
+        <v>-19.11218975130376</v>
       </c>
       <c r="F20" t="n">
-        <v>-14.11355590820312</v>
+        <v>0.499742180109024</v>
       </c>
       <c r="G20" t="n">
-        <v>-14.84945392608643</v>
+        <v>2.3364577293396</v>
       </c>
       <c r="H20" t="n">
-        <v>3.268431186676025</v>
+        <v>0.303800106048584</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>17.57564231703969</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-9.190923457646097</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.481564210923441</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-14.11355590820312</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-14.84945392608643</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.268431186676025</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v>7.328208127733031</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D22" t="n">
         <v>-16.61346639454043</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E22" t="n">
         <v>21.1434863812355</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F22" t="n">
         <v>6.44285249710083</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G22" t="n">
         <v>-5.062869071960449</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H22" t="n">
         <v>7.707920551300049</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>13.14612888104349</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.4819092987650375</v>
+      </c>
+      <c r="E23" t="n">
+        <v>29.9319970146727</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.4938832223415375</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-9.879995346069336</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.3310975134372711</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>22.3981020806244</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-18.41001325154172</v>
+      </c>
+      <c r="E24" t="n">
+        <v>26.03648814838894</v>
+      </c>
+      <c r="F24" t="n">
+        <v>6.862566947937012</v>
+      </c>
+      <c r="G24" t="n">
+        <v>17.44670104980469</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-6.492054462432861</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>25.07217257589271</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-46.9146286031819</v>
+      </c>
+      <c r="E25" t="n">
+        <v>26.18006417501044</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.584963321685791</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.4454802870750427</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.492385864257812</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1.007597878492922</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2.652457189823263</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3.160516032856393</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-7.439141273498535</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-3.388273239135742</v>
+      </c>
+      <c r="H26" t="n">
+        <v>10.04511070251465</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-11.37837042466059</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-20.30985535047345</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3.219444780718657</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.835583806037903</v>
+      </c>
+      <c r="G27" t="n">
+        <v>12.65514183044434</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-3.548196077346802</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-19.19458270599844</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-40.56597906581633</v>
+      </c>
+      <c r="E28" t="n">
+        <v>23.86108243531293</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.2848250865936279</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-6.074337482452393</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.493201971054077</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-2.306829021780334</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-12.78860808340835</v>
+      </c>
+      <c r="E29" t="n">
+        <v>22.76510469426068</v>
+      </c>
+      <c r="F29" t="n">
+        <v>7.885753154754639</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-7.940680980682373</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-2.813696384429932</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-29.36129014663261</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-62.85535855846575</v>
+      </c>
+      <c r="E30" t="n">
+        <v>59.51861236108672</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.459545493125916</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.23096264898777</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-2.083990097045898</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-37.91703132502937</v>
+      </c>
+      <c r="D31" t="n">
+        <v>6.169044086287685</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-16.59176512449484</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-3.29206657409668</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4.709334373474121</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.162437200546265</v>
       </c>
     </row>
   </sheetData>
